--- a/backend/data/Crime_Data_Template (3).xlsx
+++ b/backend/data/Crime_Data_Template (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Maharastra\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CD978-F4DD-41F4-9EFC-2EF37FCAB1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD25184-40AF-4920-B527-BE9DFF83D217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>5</v>
